--- a/analysis/metadata/P04_8/P04_8_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_8/P04_8_minimal_metadata.xlsx
@@ -569,6 +569,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -632,6 +637,11 @@
           <t>Fabids</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Fabales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -695,6 +705,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -758,6 +773,11 @@
           <t>Fabids</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Fabales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -821,6 +841,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -884,6 +909,11 @@
           <t>Fabids</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Fabales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -947,6 +977,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1010,6 +1045,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1073,6 +1113,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1194,6 +1239,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1257,6 +1307,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1320,6 +1375,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1383,6 +1443,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1446,6 +1511,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1509,6 +1579,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1572,6 +1647,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1635,6 +1715,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1698,6 +1783,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1761,6 +1851,11 @@
           <t>Fabids</t>
         </is>
       </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Fabales</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1882,6 +1977,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1945,6 +2045,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2008,6 +2113,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2071,6 +2181,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2134,6 +2249,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2197,6 +2317,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2260,6 +2385,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2323,6 +2453,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2386,6 +2521,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2507,6 +2647,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2570,6 +2715,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2633,6 +2783,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2696,6 +2851,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2759,6 +2919,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2822,6 +2987,11 @@
           <t>Fabids</t>
         </is>
       </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Fabales</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2885,6 +3055,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2948,6 +3123,11 @@
           <t>Fabids</t>
         </is>
       </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Fabales</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3011,6 +3191,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3074,6 +3259,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3195,6 +3385,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3258,6 +3453,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3321,6 +3521,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3384,6 +3589,11 @@
           <t>Fabids</t>
         </is>
       </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Fabales</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3447,6 +3657,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3510,6 +3725,11 @@
           <t>Fabids</t>
         </is>
       </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Fabales</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3573,6 +3793,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3636,6 +3861,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3699,6 +3929,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3762,6 +3997,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3883,6 +4123,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4014,6 +4259,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4077,6 +4327,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4140,6 +4395,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4203,6 +4463,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4266,6 +4531,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4329,6 +4599,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4392,6 +4667,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4513,6 +4793,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4576,6 +4861,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4639,6 +4929,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4702,6 +4997,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4765,6 +5065,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4828,6 +5133,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4891,6 +5201,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4954,6 +5269,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5017,6 +5337,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5080,6 +5405,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5143,6 +5473,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5206,6 +5541,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5327,6 +5667,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5390,6 +5735,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5453,6 +5803,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5632,6 +5987,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5695,6 +6055,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5758,6 +6123,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5821,6 +6191,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5884,6 +6259,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5947,6 +6327,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6010,6 +6395,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6073,6 +6463,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6136,6 +6531,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6199,6 +6599,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6262,6 +6667,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6325,6 +6735,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6388,6 +6803,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6451,6 +6871,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6572,6 +6997,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6635,6 +7065,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6698,6 +7133,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6761,6 +7201,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6882,6 +7327,11 @@
           <t>Fallow</t>
         </is>
       </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Uncultivated</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6945,6 +7395,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7008,6 +7463,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7071,6 +7531,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7134,6 +7599,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7255,6 +7725,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7492,6 +7967,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7613,6 +8093,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7676,6 +8161,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>Barley</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7739,6 +8229,11 @@
           <t>Poales, grass</t>
         </is>
       </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>Grass for crop</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7802,6 +8297,11 @@
           <t>Superasterids</t>
         </is>
       </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7865,6 +8365,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7986,6 +8491,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8049,6 +8559,11 @@
           <t>Poales, Cereal</t>
         </is>
       </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8110,6 +8625,11 @@
       <c r="O124" t="inlineStr">
         <is>
           <t>Superasterids</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>Caryophyllales, Beetroot </t>
         </is>
       </c>
     </row>
